--- a/Assets/06.Table/GuildRewardTable.xlsx
+++ b/Assets/06.Table/GuildRewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473C2052-2901-4F8E-B6B8-D738E751CA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A28C66-961F-44C9-99A9-7F5E0BC4320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2700" yWindow="3555" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildRewardTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,18 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +72,10 @@
   </si>
   <si>
     <t>복숭아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의돌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -475,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -495,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -503,19 +499,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>5000000</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -523,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -535,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -546,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -563,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>100000000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -575,27 +571,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildRewardTable.xlsx
+++ b/Assets/06.Table/GuildRewardTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A28C66-961F-44C9-99A9-7F5E0BC4320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE8A02-6D72-4ED1-9165-13A8E48B8C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="3555" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-705" yWindow="7740" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildRewardTable" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
